--- a/data/trans_camb/P1421-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1421-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.178244545419171</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.579284309999142</v>
+        <v>2.579284309999144</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.374924108170013</v>
+        <v>-4.329073425690088</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.27990212147666</v>
+        <v>-2.467247123553729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6476342902375261</v>
+        <v>-0.8106593250468003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.331308369674834</v>
+        <v>-2.966271700905896</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.319927316428983</v>
+        <v>-6.73373169526039</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.7754170316132016</v>
+        <v>-1.55381489369794</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.009260421068171</v>
+        <v>-2.919130883669083</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.093622357130331</v>
+        <v>-3.090197991012221</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5671485326834959</v>
+        <v>0.628741671543904</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.5824507249364143</v>
+        <v>-0.6887174775767274</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.239451352973088</v>
+        <v>2.18675653151779</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.17257808697921</v>
+        <v>4.115311458797661</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.755208752685154</v>
+        <v>4.941669067035651</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4463605677157881</v>
+        <v>0.4562780620951418</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.4765700114503</v>
+        <v>6.17517495066017</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.208914872852498</v>
+        <v>1.034596000880411</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7742013870521132</v>
+        <v>0.8085301390559867</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.532989418629342</v>
+        <v>4.747355205408435</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.2603332835339597</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5698931993364902</v>
+        <v>0.5698931993364905</v>
       </c>
     </row>
     <row r="8">
@@ -783,28 +783,28 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.518948055626049</v>
+        <v>-0.5661670187898482</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1672212902145943</v>
+        <v>-0.1948694463189096</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.396983797966392</v>
+        <v>-0.3570044985740785</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7556425654132213</v>
+        <v>-0.7343421128847251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09466727670215315</v>
+        <v>-0.1734861525772671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5271019050435224</v>
+        <v>-0.5194797279629131</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5591267972068779</v>
+        <v>-0.5572881212866209</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.08903840418400698</v>
+        <v>0.1024832553733337</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02073615435160091</v>
+        <v>-0.01726319365075203</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.075419132837557</v>
+        <v>1.084944550773176</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.235968277282298</v>
+        <v>2.093326692375325</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.046186927794609</v>
+        <v>1.035008798940672</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1439224733938105</v>
+        <v>0.149649755124537</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.4588770034328</v>
+        <v>1.353893791727417</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3855725407665648</v>
+        <v>0.3392695784236114</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2552638966891202</v>
+        <v>0.2314028771695356</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.272905717959368</v>
+        <v>1.445328943967141</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.558977621026756</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9713350914018183</v>
+        <v>0.9713350914018176</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-3.442999315414322</v>
@@ -869,7 +869,7 @@
         <v>-2.909853774036447</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.695940607684284</v>
+        <v>2.695940607684287</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.614574597159667</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.351070668833954</v>
+        <v>-3.218211497934152</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.579757435604836</v>
+        <v>-3.429592056336261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.248882050981672</v>
+        <v>-1.225693546909769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.416807761567261</v>
+        <v>-7.062046465901473</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.460938652901135</v>
+        <v>-6.411608397301739</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.351192382225133</v>
+        <v>-1.641876170249888</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.590415084355802</v>
+        <v>-4.667435833159955</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.418808797882172</v>
+        <v>-4.424878926216327</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5842982886513137</v>
+        <v>-0.6687564074362713</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3179914354867274</v>
+        <v>0.3359074252246695</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03108216953386518</v>
+        <v>0.03213971746186302</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.249578861988963</v>
+        <v>3.077529220121886</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.2836684878630729</v>
+        <v>0.6738338642598253</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6755962689775747</v>
+        <v>0.8402585333223509</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.292349525897298</v>
+        <v>6.67468512961366</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.4363112508910228</v>
+        <v>-0.7599222812387169</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1475229466058419</v>
+        <v>-0.1424633440880516</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.675020551488428</v>
+        <v>3.604420830348597</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.6662342582952857</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.41510327374043</v>
+        <v>0.4151032737404297</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.4261297254587915</v>
@@ -974,7 +974,7 @@
         <v>-0.3601438967193532</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3336685040460037</v>
+        <v>0.3336685040460041</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.5000148175917187</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8982742575244681</v>
+        <v>-0.9189257134052113</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3966355352503635</v>
+        <v>-0.4117345607317532</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7207362614145681</v>
+        <v>-0.7220162177884034</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6483421767782297</v>
+        <v>-0.6539642588028299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1417146493621874</v>
+        <v>-0.1646455751917973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7261006184705331</v>
+        <v>-0.7387598620738485</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.686274992402445</v>
+        <v>-0.6864388459487182</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1097164984941641</v>
+        <v>-0.1039402614676099</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5128894139982317</v>
+        <v>0.4553211524059713</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4963512061465468</v>
+        <v>0.4871504585818841</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.886217406893768</v>
+        <v>2.23952050700589</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.006451945223090306</v>
+        <v>0.1779644082074729</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1608811077484328</v>
+        <v>0.1647088399680792</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.015569769638303</v>
+        <v>1.101151518557356</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.092251185905324</v>
+        <v>-0.1361532320240442</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.02368286683564978</v>
+        <v>0.0374360540938855</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8682685747891822</v>
+        <v>0.8701879117182089</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-1.397194150642419</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.615641253007498</v>
+        <v>3.615641253007497</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.00916625924495</v>
+        <v>-3.126324146720018</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.77201130729829</v>
+        <v>-3.533283851898419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4221653199966303</v>
+        <v>-0.3489295724715885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.923671672224334</v>
+        <v>-6.839764535848075</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.613720072311838</v>
+        <v>-5.639694063493772</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.76369562002223</v>
+        <v>0.9284408778098264</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.952094547702871</v>
+        <v>-3.219338253956505</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.27395876877415</v>
+        <v>-3.279932658399601</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.282681774516754</v>
+        <v>1.063677223405272</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3704400982459754</v>
+        <v>0.2006190523159669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3222523245505547</v>
+        <v>-0.3940238096496979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.588741911453202</v>
+        <v>5.012530124174043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.555037358509831</v>
+        <v>3.261199196493936</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.838326344669891</v>
+        <v>5.050888245230627</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.87521782616699</v>
+        <v>12.63642791493395</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7453911956978783</v>
+        <v>0.6231524938342068</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4674123937346428</v>
+        <v>0.5493411306672555</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.984120934262266</v>
+        <v>6.08983719135046</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.3658693692314983</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9467921004371513</v>
+        <v>0.946792100437151</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7787642824346808</v>
+        <v>-0.7861169649819414</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.927415241934551</v>
+        <v>-0.922879013636508</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1959215327946074</v>
+        <v>-0.1442528071723231</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6637752042071571</v>
+        <v>-0.6468253403691004</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5833217838352778</v>
+        <v>-0.548259470091326</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07942075425301069</v>
+        <v>0.03832734285254663</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6132126147366282</v>
+        <v>-0.6294657995774037</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6646945633870962</v>
+        <v>-0.6597666777701464</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2442033029120786</v>
+        <v>0.175979703912204</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3752481062227537</v>
+        <v>0.2550058209941948</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02564138325696385</v>
+        <v>-0.03561887807518912</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.350630403624808</v>
+        <v>2.840688842537639</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9669884487994349</v>
+        <v>0.7780711231026394</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.577217562635137</v>
+        <v>1.201406072821998</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.798718611052504</v>
+        <v>2.79945500479027</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.277295320878878</v>
+        <v>0.2381570835226339</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1960658526806421</v>
+        <v>0.2459720658087408</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.114919029280208</v>
+        <v>2.080792011904139</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.409485071712825</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.245536000162199</v>
+        <v>2.245536000162198</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.182649975493479</v>
@@ -1306,7 +1306,7 @@
         <v>-1.083877889781946</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.058538250307278</v>
+        <v>4.058538250307281</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.052848143448213</v>
+        <v>-2.074077063579994</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.465482168132594</v>
+        <v>-2.450666683498951</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9223681023235036</v>
+        <v>0.6893494766323827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.711162081648305</v>
+        <v>-3.535460359809114</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.75460083671077</v>
+        <v>-3.523414618153833</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.125315036653455</v>
+        <v>3.078360914656471</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.085873155574738</v>
+        <v>-2.046329670823508</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.30277122401845</v>
+        <v>-2.305000119315312</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.578365855364174</v>
+        <v>2.521807648003676</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1569770083046905</v>
+        <v>0.1822727612731458</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.3618220349080868</v>
+        <v>-0.4018756588119736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.826828774473129</v>
+        <v>3.896765032984834</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.224400107719379</v>
+        <v>1.05855064899388</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.02861241996497</v>
+        <v>1.249627172493236</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.367208941283156</v>
+        <v>8.254365258869251</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3433155696463663</v>
+        <v>0.172710894720187</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.02802229418513218</v>
+        <v>-0.04153146220019435</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.464050203092319</v>
+        <v>5.448518897540118</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.615664681906557</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.9808526780418845</v>
+        <v>0.9808526780418843</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1899674078798577</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2906418024705019</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.088296830837736</v>
+        <v>1.088296830837737</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6649646306366445</v>
+        <v>-0.6951709758144252</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8301785853330871</v>
+        <v>-0.8364748247382379</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2543408707640268</v>
+        <v>0.2389120860512733</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4906295486421776</v>
+        <v>-0.4795730724302863</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4824672421558277</v>
+        <v>-0.4589649642220405</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3886155740982238</v>
+        <v>0.3817466095912666</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4805298703752109</v>
+        <v>-0.4540650270999195</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5238955073996667</v>
+        <v>-0.5143214177684231</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5860661222810953</v>
+        <v>0.5717485299348476</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.117762558069165</v>
+        <v>0.1774696177528926</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1197870313250869</v>
+        <v>-0.1775281692533307</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.108190738399708</v>
+        <v>2.277248689677274</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.286206376173916</v>
+        <v>0.2243234570041992</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2104422250973899</v>
+        <v>0.270189913286297</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.670932807146811</v>
+        <v>1.683507065813506</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1059392785459701</v>
+        <v>0.08279198421566575</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.002447018525132777</v>
+        <v>-0.006924522692557049</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.822286370833067</v>
+        <v>1.7250117954663</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>0.714433617350025</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.519162176087155</v>
+        <v>5.519162176087157</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.859409767714131</v>
+        <v>-3.75055985670234</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.858454957533299</v>
+        <v>-3.012315405717477</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.7503375359080933</v>
+        <v>-0.4221271663172759</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.483998542441089</v>
+        <v>-1.337813831277027</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.106193155155806</v>
+        <v>-1.152392608203273</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.933771903927299</v>
+        <v>5.118665533233481</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.813131380110901</v>
+        <v>-1.828778297071034</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.124095787587158</v>
+        <v>-1.337518395098968</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.462062443999587</v>
+        <v>3.420260570985983</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.264535744034347</v>
+        <v>0.3578960046610274</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.691894263221206</v>
+        <v>1.666218534069607</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.780033669456481</v>
+        <v>4.913233399626823</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.567825647020611</v>
+        <v>3.919625783116401</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.579854369198632</v>
+        <v>4.451804145913219</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.38961784067612</v>
+        <v>10.26025544854882</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.711692117813819</v>
+        <v>1.874181079633736</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.708251876264122</v>
+        <v>2.635632944260867</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.375683785308058</v>
+        <v>7.328028865788279</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.899032413473667</v>
+        <v>-0.864196435390281</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6818650118625362</v>
+        <v>-0.6669282727902793</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1859256346413116</v>
+        <v>-0.219579756912883</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2316738140855361</v>
+        <v>-0.2155676639295684</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1730469092529803</v>
+        <v>-0.1638665973339495</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6295803165027406</v>
+        <v>0.6891798436991434</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3448724486547994</v>
+        <v>-0.3335852591112738</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2094992322983053</v>
+        <v>-0.2421163280528856</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5677053718238678</v>
+        <v>0.5922945035415604</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.33690900980307</v>
+        <v>0.694461967225801</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.403517905188348</v>
+        <v>1.290546827087003</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.867176757770147</v>
+        <v>3.593064402880755</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8991912666843379</v>
+        <v>0.9354018198475199</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.153251791305764</v>
+        <v>1.078334453618073</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.539621235547338</v>
+        <v>2.585382573227777</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4948836747515964</v>
+        <v>0.5884183048803661</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8350576493036308</v>
+        <v>0.7471021525284829</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.19036785349219</v>
+        <v>2.238013758624368</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>0.3752268767014628</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.186477388232023</v>
+        <v>4.186477388232024</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.1688833452254256</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.153525222859728</v>
+        <v>-1.173424757112829</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.503698809170994</v>
+        <v>-1.516134096955282</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.1159925628743512</v>
+        <v>0.04734545038900505</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.968506855574368</v>
+        <v>-2.126110904519878</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.429272082020149</v>
+        <v>-1.325877568219753</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.967002954480242</v>
+        <v>2.225205562626264</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.557592076246657</v>
+        <v>-1.748836042506726</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.3098352217158</v>
+        <v>-1.257104118453471</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.733191499033125</v>
+        <v>1.787512570976556</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.423494069018572</v>
+        <v>2.423874509059455</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.212049339650875</v>
+        <v>1.218749754939256</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.135926345834241</v>
+        <v>6.530196411177533</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.663362151215751</v>
+        <v>1.393166123851554</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.326533930013096</v>
+        <v>2.130478652401601</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.207981625548068</v>
+        <v>6.447448411084798</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.229426248249737</v>
+        <v>1.287684053088429</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.621761642167543</v>
+        <v>1.69536885518956</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.492996048616279</v>
+        <v>5.450666854586291</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.08286325902342632</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9245210877918836</v>
+        <v>0.9245210877918839</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.04409855288530458</v>
@@ -1852,25 +1852,25 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.5526354571377819</v>
+        <v>-0.4784023819691048</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.3645909638777907</v>
+        <v>-0.3853579169488217</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2829853350574166</v>
+        <v>-0.2562212477525811</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3562163556452949</v>
+        <v>0.4046408657643901</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3561987923940603</v>
+        <v>-0.3763776224171554</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2978174093012591</v>
+        <v>-0.2923416595079864</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.380896884349649</v>
+        <v>0.4001959922914226</v>
       </c>
     </row>
     <row r="39">
@@ -1884,22 +1884,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.4900569044166899</v>
+        <v>0.3788285393989013</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6108093877055411</v>
+        <v>0.5862484387050149</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.670550825934976</v>
+        <v>1.715042476726089</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3872013062236039</v>
+        <v>0.4211670021334586</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4841222064441431</v>
+        <v>0.5483996913298929</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.695917292908904</v>
+        <v>1.696714100026309</v>
       </c>
     </row>
     <row r="40">
@@ -1929,7 +1929,7 @@
         <v>-0.2906822678645019</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>5.414459968028837</v>
+        <v>5.414459968028839</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.8099490158928739</v>
@@ -1938,7 +1938,7 @@
         <v>-0.6226216736569972</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.780867981519827</v>
+        <v>3.780867981519826</v>
       </c>
     </row>
     <row r="41">
@@ -1949,31 +1949,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.859536341107465</v>
+        <v>-1.830390150089428</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.617422062097831</v>
+        <v>-1.664160155592847</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.153827930243884</v>
+        <v>1.080623987845645</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.514825077137152</v>
+        <v>-1.627209021413699</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.403660480435039</v>
+        <v>-1.485620063811304</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.202870554044772</v>
+        <v>4.152098498141362</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.423774113741617</v>
+        <v>-1.423301051865961</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.270770080478261</v>
+        <v>-1.316372262276462</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.959667943927869</v>
+        <v>3.070669440275608</v>
       </c>
     </row>
     <row r="42">
@@ -1984,31 +1984,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.572413869073173</v>
+        <v>-0.4854481738672669</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.2603074926581765</v>
+        <v>-0.3246970812564357</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.961447053673292</v>
+        <v>2.962141883553778</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.6394077468941989</v>
+        <v>0.6555111698858956</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.9211693366858505</v>
+        <v>0.9336548656252965</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.656017620353824</v>
+        <v>6.606296014285975</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.1639836377070945</v>
+        <v>-0.08860646413729523</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.08741270257499445</v>
+        <v>0.0335185286155664</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.51460862896416</v>
+        <v>4.526275683799379</v>
       </c>
     </row>
     <row r="43">
@@ -2034,7 +2034,7 @@
         <v>-0.05038275556758123</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.9384659583941699</v>
+        <v>0.9384659583941705</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1969769851221201</v>
@@ -2043,7 +2043,7 @@
         <v>-0.1514195804206827</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.9194948836668917</v>
+        <v>0.9194948836668914</v>
       </c>
     </row>
     <row r="44">
@@ -2054,31 +2054,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6669694862464096</v>
+        <v>-0.6610972453946735</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5826779832098656</v>
+        <v>-0.5926990487728471</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.39031404257609</v>
+        <v>0.3889901510656783</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2417480313428751</v>
+        <v>-0.2490965875157034</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2236701196986902</v>
+        <v>-0.2335770696151654</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6416010114594084</v>
+        <v>0.6561426021775212</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3200639271590358</v>
+        <v>-0.3186131406806367</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2935873433855046</v>
+        <v>-0.2993961337455258</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6481788082125898</v>
+        <v>0.6887084487698814</v>
       </c>
     </row>
     <row r="45">
@@ -2089,31 +2089,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.27540194536848</v>
+        <v>-0.2246804797607092</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1218637310408808</v>
+        <v>-0.1522718997492156</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.406693747392007</v>
+        <v>1.434151117746223</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1232255402990781</v>
+        <v>0.1342582839308182</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1704209673576254</v>
+        <v>0.180904531995034</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.281490393272513</v>
+        <v>1.282874259173503</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.04471537416017275</v>
+        <v>-0.02996542647365259</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.0236468853100202</v>
+        <v>0.009241474796342098</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.187310757305491</v>
+        <v>1.178443849215471</v>
       </c>
     </row>
     <row r="46">
